--- a/SP6MOVPP.xlsx
+++ b/SP6MOVPP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -55,7 +55,7 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Account</x:t>
+    <x:t>SESW_6_CC_001Ability for an agent to select a payment plan to be associated with the contract</x:t>
   </x:si>
   <x:si>
     <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
@@ -70,6 +70,9 @@
     <x:t>User should be navigated to the Account Page</x:t>
   </x:si>
   <x:si>
+    <x:t>Modified Step</x:t>
+  </x:si>
+  <x:si>
     <x:t>Step 2</x:t>
   </x:si>
   <x:si>
@@ -85,16 +88,10 @@
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>SESW_6_CC_001Ability for an agent to select a payment plan to be associated with the contract</x:t>
-  </x:si>
-  <x:si>
     <x:t>Go to the Customer Move Wizard and Start the Move In process</x:t>
   </x:si>
   <x:si>
     <x:t>Move In process is started</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Test Case</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_22</x:t>
@@ -753,7 +750,9 @@
       </x:c>
       <x:c r="I2" s="0" t="s"/>
       <x:c r="J2" s="0" t="s"/>
-      <x:c r="K2" s="0" t="s"/>
+      <x:c r="K2" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
     </x:row>
     <x:row r="3" spans="1:11">
       <x:c r="A3" s="0" t="s"/>
@@ -762,13 +761,13 @@
       <x:c r="D3" s="0" t="s"/>
       <x:c r="E3" s="0" t="s"/>
       <x:c r="F3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G3" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="H3" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
@@ -776,14 +775,12 @@
     </x:row>
     <x:row r="4" spans="1:11">
       <x:c r="A4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
+      <x:c r="C4" s="0" t="s"/>
       <x:c r="D4" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
@@ -800,18 +797,18 @@
       <x:c r="I4" s="0" t="s"/>
       <x:c r="J4" s="0" t="s"/>
       <x:c r="K4" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:11">
       <x:c r="A5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
         <x:v>14</x:v>
@@ -821,10 +818,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H5" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -837,13 +834,13 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -851,13 +848,13 @@
     </x:row>
     <x:row r="7" spans="1:11">
       <x:c r="A7" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>14</x:v>
@@ -867,10 +864,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H7" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -883,13 +880,13 @@
       <x:c r="D8" s="0" t="s"/>
       <x:c r="E8" s="0" t="s"/>
       <x:c r="F8" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H8" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
@@ -897,13 +894,13 @@
     </x:row>
     <x:row r="9" spans="1:11">
       <x:c r="A9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>14</x:v>
@@ -913,10 +910,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H9" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -929,13 +926,13 @@
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s"/>
       <x:c r="F10" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H10" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -943,13 +940,13 @@
     </x:row>
     <x:row r="11" spans="1:11">
       <x:c r="A11" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
         <x:v>14</x:v>
@@ -959,10 +956,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H11" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
@@ -975,13 +972,13 @@
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -989,13 +986,13 @@
     </x:row>
     <x:row r="13" spans="1:11">
       <x:c r="A13" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
         <x:v>14</x:v>
@@ -1005,10 +1002,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
@@ -1021,13 +1018,13 @@
       <x:c r="D14" s="0" t="s"/>
       <x:c r="E14" s="0" t="s"/>
       <x:c r="F14" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -1035,13 +1032,13 @@
     </x:row>
     <x:row r="15" spans="1:11">
       <x:c r="A15" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
         <x:v>14</x:v>
@@ -1051,10 +1048,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -1067,13 +1064,13 @@
       <x:c r="D16" s="0" t="s"/>
       <x:c r="E16" s="0" t="s"/>
       <x:c r="F16" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
@@ -1081,13 +1078,13 @@
     </x:row>
     <x:row r="17" spans="1:11">
       <x:c r="A17" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C17" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D17" s="0" t="s">
         <x:v>14</x:v>
@@ -1097,10 +1094,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G17" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I17" s="0" t="s"/>
       <x:c r="J17" s="0" t="s"/>
@@ -1113,13 +1110,13 @@
       <x:c r="D18" s="0" t="s"/>
       <x:c r="E18" s="0" t="s"/>
       <x:c r="F18" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G18" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I18" s="0" t="s"/>
       <x:c r="J18" s="0" t="s"/>
@@ -1127,13 +1124,13 @@
     </x:row>
     <x:row r="19" spans="1:11">
       <x:c r="A19" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
         <x:v>14</x:v>
@@ -1143,10 +1140,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G19" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="I19" s="0" t="s"/>
       <x:c r="J19" s="0" t="s"/>
@@ -1159,13 +1156,13 @@
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="0" t="s"/>
       <x:c r="F20" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G20" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
       <x:c r="I20" s="0" t="s"/>
       <x:c r="J20" s="0" t="s"/>
@@ -1173,13 +1170,13 @@
     </x:row>
     <x:row r="21" spans="1:11">
       <x:c r="A21" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
         <x:v>42</x:v>
-      </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>43</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
         <x:v>14</x:v>
@@ -1189,10 +1186,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G21" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
         <x:v>44</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>45</x:v>
       </x:c>
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
@@ -1204,16 +1201,16 @@
       <x:c r="C22" s="0" t="s"/>
       <x:c r="D22" s="0" t="s"/>
       <x:c r="E22" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G22" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
+      <x:c r="H22" s="0" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>48</x:v>
       </x:c>
       <x:c r="I22" s="0" t="s"/>
       <x:c r="J22" s="0" t="s"/>
@@ -1225,16 +1222,16 @@
       <x:c r="C23" s="0" t="s"/>
       <x:c r="D23" s="0" t="s"/>
       <x:c r="E23" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
         <x:v>49</x:v>
       </x:c>
-      <x:c r="F23" s="0" t="s">
+      <x:c r="G23" s="0" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="G23" s="0" t="s">
+      <x:c r="H23" s="0" t="s">
         <x:v>51</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>52</x:v>
       </x:c>
       <x:c r="I23" s="0" t="s"/>
       <x:c r="J23" s="0" t="s"/>
@@ -1246,16 +1243,16 @@
       <x:c r="C24" s="0" t="s"/>
       <x:c r="D24" s="0" t="s"/>
       <x:c r="E24" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F24" s="0" t="s">
         <x:v>53</x:v>
       </x:c>
-      <x:c r="F24" s="0" t="s">
+      <x:c r="G24" s="0" t="s">
         <x:v>54</x:v>
       </x:c>
-      <x:c r="G24" s="0" t="s">
+      <x:c r="H24" s="0" t="s">
         <x:v>55</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>56</x:v>
       </x:c>
       <x:c r="I24" s="0" t="s"/>
       <x:c r="J24" s="0" t="s"/>
@@ -1267,16 +1264,16 @@
       <x:c r="C25" s="0" t="s"/>
       <x:c r="D25" s="0" t="s"/>
       <x:c r="E25" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F25" s="0" t="s">
+      <x:c r="G25" s="0" t="s">
         <x:v>58</x:v>
       </x:c>
-      <x:c r="G25" s="0" t="s">
+      <x:c r="H25" s="0" t="s">
         <x:v>59</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>60</x:v>
       </x:c>
       <x:c r="I25" s="0" t="s"/>
       <x:c r="J25" s="0" t="s"/>
@@ -1289,13 +1286,13 @@
       <x:c r="D26" s="0" t="s"/>
       <x:c r="E26" s="0" t="s"/>
       <x:c r="F26" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G26" s="0" t="s">
         <x:v>61</x:v>
       </x:c>
-      <x:c r="G26" s="0" t="s">
+      <x:c r="H26" s="0" t="s">
         <x:v>62</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>63</x:v>
       </x:c>
       <x:c r="I26" s="0" t="s"/>
       <x:c r="J26" s="0" t="s"/>
@@ -1303,13 +1300,13 @@
     </x:row>
     <x:row r="27" spans="1:11">
       <x:c r="A27" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
         <x:v>14</x:v>
@@ -1319,10 +1316,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G27" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H27" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I27" s="0" t="s"/>
       <x:c r="J27" s="0" t="s"/>
@@ -1335,13 +1332,13 @@
       <x:c r="D28" s="0" t="s"/>
       <x:c r="E28" s="0" t="s"/>
       <x:c r="F28" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G28" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H28" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I28" s="0" t="s"/>
       <x:c r="J28" s="0" t="s"/>
@@ -1349,13 +1346,13 @@
     </x:row>
     <x:row r="29" spans="1:11">
       <x:c r="A29" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
         <x:v>14</x:v>
@@ -1365,10 +1362,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G29" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H29" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I29" s="0" t="s"/>
       <x:c r="J29" s="0" t="s"/>
@@ -1381,13 +1378,13 @@
       <x:c r="D30" s="0" t="s"/>
       <x:c r="E30" s="0" t="s"/>
       <x:c r="F30" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G30" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H30" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I30" s="0" t="s"/>
       <x:c r="J30" s="0" t="s"/>
@@ -1395,13 +1392,13 @@
     </x:row>
     <x:row r="31" spans="1:11">
       <x:c r="A31" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B31" s="0" t="s">
+      <x:c r="C31" s="0" t="s">
         <x:v>35</x:v>
-      </x:c>
-      <x:c r="C31" s="0" t="s">
-        <x:v>36</x:v>
       </x:c>
       <x:c r="D31" s="0" t="s">
         <x:v>14</x:v>
@@ -1411,10 +1408,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G31" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="H31" s="0" t="s">
         <x:v>37</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>38</x:v>
       </x:c>
       <x:c r="I31" s="0" t="s"/>
       <x:c r="J31" s="0" t="s"/>
@@ -1427,13 +1424,13 @@
       <x:c r="D32" s="0" t="s"/>
       <x:c r="E32" s="0" t="s"/>
       <x:c r="F32" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G32" s="0" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="H32" s="0" t="s">
         <x:v>39</x:v>
-      </x:c>
-      <x:c r="H32" s="0" t="s">
-        <x:v>40</x:v>
       </x:c>
       <x:c r="I32" s="0" t="s"/>
       <x:c r="J32" s="0" t="s"/>
@@ -1441,13 +1438,13 @@
     </x:row>
     <x:row r="33" spans="1:11">
       <x:c r="A33" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="B33" s="0" t="s">
+      <x:c r="C33" s="0" t="s">
         <x:v>65</x:v>
-      </x:c>
-      <x:c r="C33" s="0" t="s">
-        <x:v>66</x:v>
       </x:c>
       <x:c r="D33" s="0" t="s">
         <x:v>14</x:v>
@@ -1457,10 +1454,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G33" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="H33" s="0" t="s">
         <x:v>67</x:v>
-      </x:c>
-      <x:c r="H33" s="0" t="s">
-        <x:v>68</x:v>
       </x:c>
       <x:c r="I33" s="0" t="s"/>
       <x:c r="J33" s="0" t="s"/>
@@ -1473,13 +1470,13 @@
       <x:c r="D34" s="0" t="s"/>
       <x:c r="E34" s="0" t="s"/>
       <x:c r="F34" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G34" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="H34" s="0" t="s">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="H34" s="0" t="s">
-        <x:v>70</x:v>
       </x:c>
       <x:c r="I34" s="0" t="s"/>
       <x:c r="J34" s="0" t="s"/>
@@ -1487,13 +1484,13 @@
     </x:row>
     <x:row r="35" spans="1:11">
       <x:c r="A35" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
         <x:v>71</x:v>
       </x:c>
-      <x:c r="B35" s="0" t="s">
+      <x:c r="C35" s="0" t="s">
         <x:v>72</x:v>
-      </x:c>
-      <x:c r="C35" s="0" t="s">
-        <x:v>73</x:v>
       </x:c>
       <x:c r="D35" s="0" t="s">
         <x:v>14</x:v>
@@ -1503,10 +1500,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G35" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="H35" s="0" t="s">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="H35" s="0" t="s">
-        <x:v>75</x:v>
       </x:c>
       <x:c r="I35" s="0" t="s"/>
       <x:c r="J35" s="0" t="s"/>
@@ -1518,16 +1515,16 @@
       <x:c r="C36" s="0" t="s"/>
       <x:c r="D36" s="0" t="s"/>
       <x:c r="E36" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F36" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G36" s="0" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="F36" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G36" s="0" t="s">
+      <x:c r="H36" s="0" t="s">
         <x:v>77</x:v>
-      </x:c>
-      <x:c r="H36" s="0" t="s">
-        <x:v>78</x:v>
       </x:c>
       <x:c r="I36" s="0" t="s"/>
       <x:c r="J36" s="0" t="s"/>
@@ -1539,16 +1536,16 @@
       <x:c r="C37" s="0" t="s"/>
       <x:c r="D37" s="0" t="s"/>
       <x:c r="E37" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F37" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G37" s="0" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="F37" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G37" s="0" t="s">
+      <x:c r="H37" s="0" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="H37" s="0" t="s">
-        <x:v>81</x:v>
       </x:c>
       <x:c r="I37" s="0" t="s"/>
       <x:c r="J37" s="0" t="s"/>
@@ -1560,16 +1557,16 @@
       <x:c r="C38" s="0" t="s"/>
       <x:c r="D38" s="0" t="s"/>
       <x:c r="E38" s="0" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F38" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G38" s="0" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="F38" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="G38" s="0" t="s">
+      <x:c r="H38" s="0" t="s">
         <x:v>83</x:v>
-      </x:c>
-      <x:c r="H38" s="0" t="s">
-        <x:v>84</x:v>
       </x:c>
       <x:c r="I38" s="0" t="s"/>
       <x:c r="J38" s="0" t="s"/>
@@ -1581,16 +1578,16 @@
       <x:c r="C39" s="0" t="s"/>
       <x:c r="D39" s="0" t="s"/>
       <x:c r="E39" s="0" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="F39" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="G39" s="0" t="s">
         <x:v>85</x:v>
       </x:c>
-      <x:c r="F39" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="G39" s="0" t="s">
+      <x:c r="H39" s="0" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="H39" s="0" t="s">
-        <x:v>87</x:v>
       </x:c>
       <x:c r="I39" s="0" t="s"/>
       <x:c r="J39" s="0" t="s"/>
@@ -1603,13 +1600,13 @@
       <x:c r="D40" s="0" t="s"/>
       <x:c r="E40" s="0" t="s"/>
       <x:c r="F40" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="G40" s="0" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="H40" s="0" t="s">
         <x:v>88</x:v>
-      </x:c>
-      <x:c r="H40" s="0" t="s">
-        <x:v>89</x:v>
       </x:c>
       <x:c r="I40" s="0" t="s"/>
       <x:c r="J40" s="0" t="s"/>
@@ -1617,13 +1614,13 @@
     </x:row>
     <x:row r="41" spans="1:11">
       <x:c r="A41" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B41" s="0" t="s">
+      <x:c r="C41" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C41" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D41" s="0" t="s">
         <x:v>14</x:v>
@@ -1633,10 +1630,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G41" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H41" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H41" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I41" s="0" t="s"/>
       <x:c r="J41" s="0" t="s"/>
@@ -1649,13 +1646,13 @@
       <x:c r="D42" s="0" t="s"/>
       <x:c r="E42" s="0" t="s"/>
       <x:c r="F42" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G42" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H42" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H42" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I42" s="0" t="s"/>
       <x:c r="J42" s="0" t="s"/>
@@ -1663,13 +1660,13 @@
     </x:row>
     <x:row r="43" spans="1:11">
       <x:c r="A43" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B43" s="0" t="s">
+      <x:c r="C43" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C43" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D43" s="0" t="s">
         <x:v>14</x:v>
@@ -1679,10 +1676,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G43" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H43" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H43" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I43" s="0" t="s"/>
       <x:c r="J43" s="0" t="s"/>
@@ -1695,13 +1692,13 @@
       <x:c r="D44" s="0" t="s"/>
       <x:c r="E44" s="0" t="s"/>
       <x:c r="F44" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G44" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H44" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H44" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I44" s="0" t="s"/>
       <x:c r="J44" s="0" t="s"/>
@@ -1709,13 +1706,13 @@
     </x:row>
     <x:row r="45" spans="1:11">
       <x:c r="A45" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B45" s="0" t="s">
+      <x:c r="C45" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C45" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D45" s="0" t="s">
         <x:v>14</x:v>
@@ -1725,10 +1722,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G45" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H45" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H45" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I45" s="0" t="s"/>
       <x:c r="J45" s="0" t="s"/>
@@ -1741,13 +1738,13 @@
       <x:c r="D46" s="0" t="s"/>
       <x:c r="E46" s="0" t="s"/>
       <x:c r="F46" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G46" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H46" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H46" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I46" s="0" t="s"/>
       <x:c r="J46" s="0" t="s"/>
@@ -1755,13 +1752,13 @@
     </x:row>
     <x:row r="47" spans="1:11">
       <x:c r="A47" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B47" s="0" t="s">
+      <x:c r="C47" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C47" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D47" s="0" t="s">
         <x:v>14</x:v>
@@ -1771,10 +1768,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G47" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H47" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H47" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I47" s="0" t="s"/>
       <x:c r="J47" s="0" t="s"/>
@@ -1787,13 +1784,13 @@
       <x:c r="D48" s="0" t="s"/>
       <x:c r="E48" s="0" t="s"/>
       <x:c r="F48" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G48" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H48" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H48" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I48" s="0" t="s"/>
       <x:c r="J48" s="0" t="s"/>
@@ -1801,13 +1798,13 @@
     </x:row>
     <x:row r="49" spans="1:11">
       <x:c r="A49" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B49" s="0" t="s">
+      <x:c r="C49" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C49" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D49" s="0" t="s">
         <x:v>14</x:v>
@@ -1817,10 +1814,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G49" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H49" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H49" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I49" s="0" t="s"/>
       <x:c r="J49" s="0" t="s"/>
@@ -1833,13 +1830,13 @@
       <x:c r="D50" s="0" t="s"/>
       <x:c r="E50" s="0" t="s"/>
       <x:c r="F50" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G50" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H50" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H50" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I50" s="0" t="s"/>
       <x:c r="J50" s="0" t="s"/>
@@ -1847,13 +1844,13 @@
     </x:row>
     <x:row r="51" spans="1:11">
       <x:c r="A51" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B51" s="0" t="s">
+      <x:c r="C51" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C51" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D51" s="0" t="s">
         <x:v>14</x:v>
@@ -1863,10 +1860,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G51" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H51" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H51" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I51" s="0" t="s"/>
       <x:c r="J51" s="0" t="s"/>
@@ -1879,13 +1876,13 @@
       <x:c r="D52" s="0" t="s"/>
       <x:c r="E52" s="0" t="s"/>
       <x:c r="F52" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G52" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H52" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H52" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I52" s="0" t="s"/>
       <x:c r="J52" s="0" t="s"/>
@@ -1893,13 +1890,13 @@
     </x:row>
     <x:row r="53" spans="1:11">
       <x:c r="A53" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B53" s="0" t="s">
+      <x:c r="C53" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C53" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D53" s="0" t="s">
         <x:v>14</x:v>
@@ -1909,10 +1906,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G53" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H53" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H53" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I53" s="0" t="s"/>
       <x:c r="J53" s="0" t="s"/>
@@ -1925,13 +1922,13 @@
       <x:c r="D54" s="0" t="s"/>
       <x:c r="E54" s="0" t="s"/>
       <x:c r="F54" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G54" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H54" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H54" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I54" s="0" t="s"/>
       <x:c r="J54" s="0" t="s"/>
@@ -1939,13 +1936,13 @@
     </x:row>
     <x:row r="55" spans="1:11">
       <x:c r="A55" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B55" s="0" t="s">
+      <x:c r="C55" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C55" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D55" s="0" t="s">
         <x:v>14</x:v>
@@ -1955,10 +1952,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G55" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H55" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H55" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I55" s="0" t="s"/>
       <x:c r="J55" s="0" t="s"/>
@@ -1971,13 +1968,13 @@
       <x:c r="D56" s="0" t="s"/>
       <x:c r="E56" s="0" t="s"/>
       <x:c r="F56" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G56" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H56" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H56" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I56" s="0" t="s"/>
       <x:c r="J56" s="0" t="s"/>
@@ -1985,13 +1982,13 @@
     </x:row>
     <x:row r="57" spans="1:11">
       <x:c r="A57" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B57" s="0" t="s">
+      <x:c r="C57" s="0" t="s">
         <x:v>28</x:v>
-      </x:c>
-      <x:c r="C57" s="0" t="s">
-        <x:v>29</x:v>
       </x:c>
       <x:c r="D57" s="0" t="s">
         <x:v>14</x:v>
@@ -2001,10 +1998,10 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="G57" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="H57" s="0" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="H57" s="0" t="s">
-        <x:v>31</x:v>
       </x:c>
       <x:c r="I57" s="0" t="s"/>
       <x:c r="J57" s="0" t="s"/>
@@ -2017,13 +2014,13 @@
       <x:c r="D58" s="0" t="s"/>
       <x:c r="E58" s="0" t="s"/>
       <x:c r="F58" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G58" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="H58" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H58" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I58" s="0" t="s"/>
       <x:c r="J58" s="0" t="s"/>

--- a/SP6MOVPP.xlsx
+++ b/SP6MOVPP.xlsx
@@ -5,22 +5,23 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUHANA SUNAIJ\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0BA6B7-6585-48A3-B33C-93C861DAE50C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE722A3D-524D-4814-A4BA-EDEAE43B187C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="91">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -290,9 +291,6 @@
   </si>
   <si>
     <t>Approved</t>
-  </si>
-  <si>
-    <t>Rejected</t>
   </si>
   <si>
     <t>Nil</t>
@@ -364,7 +362,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K58" totalsRowShown="0">
-  <autoFilter ref="A1:K58" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="A1:K58" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -669,26 +673,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="3" max="3" width="86.1796875" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="50.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" customWidth="1"/>
-    <col min="7" max="7" width="69.7109375" customWidth="1"/>
-    <col min="8" max="8" width="66.140625" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="50.26953125" customWidth="1"/>
+    <col min="6" max="6" width="7.81640625" customWidth="1"/>
+    <col min="7" max="7" width="69.7265625" customWidth="1"/>
+    <col min="8" max="8" width="66.1796875" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
     <col min="10" max="10" width="17" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -752,7 +756,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F3" t="s">
         <v>19</v>
       </c>
@@ -763,7 +767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -783,16 +787,16 @@
         <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -815,13 +819,13 @@
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
         <v>19</v>
       </c>
@@ -832,7 +836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -855,13 +859,13 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F8" t="s">
         <v>19</v>
       </c>
@@ -872,7 +876,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -895,13 +899,13 @@
         <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
         <v>19</v>
       </c>
@@ -912,7 +916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -935,13 +939,13 @@
         <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
         <v>19</v>
       </c>
@@ -952,7 +956,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -975,13 +979,13 @@
         <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>19</v>
       </c>
@@ -992,7 +996,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1015,13 +1019,13 @@
         <v>30</v>
       </c>
       <c r="I15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +1036,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1055,13 +1059,13 @@
         <v>30</v>
       </c>
       <c r="I17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>19</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1095,13 +1099,13 @@
         <v>37</v>
       </c>
       <c r="I19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>19</v>
       </c>
@@ -1112,7 +1116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -1135,13 +1139,13 @@
         <v>44</v>
       </c>
       <c r="I21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>45</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>48</v>
       </c>
@@ -1169,7 +1173,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>52</v>
       </c>
@@ -1183,7 +1187,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>56</v>
       </c>
@@ -1197,7 +1201,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F26" t="s">
         <v>60</v>
       </c>
@@ -1208,7 +1212,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1231,13 +1235,13 @@
         <v>30</v>
       </c>
       <c r="I27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F28" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -1271,13 +1275,13 @@
         <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F30" t="s">
         <v>19</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -1311,13 +1315,13 @@
         <v>37</v>
       </c>
       <c r="I31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F32" t="s">
         <v>19</v>
       </c>
@@ -1328,7 +1332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -1351,13 +1355,13 @@
         <v>67</v>
       </c>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F34" t="s">
         <v>19</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -1391,13 +1395,13 @@
         <v>74</v>
       </c>
       <c r="I35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
         <v>75</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
         <v>78</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
         <v>81</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
         <v>84</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F40" t="s">
         <v>60</v>
       </c>
@@ -1464,7 +1468,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>26</v>
       </c>
@@ -1487,13 +1491,13 @@
         <v>30</v>
       </c>
       <c r="I41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J41" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F42" t="s">
         <v>19</v>
       </c>
@@ -1504,7 +1508,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>26</v>
       </c>
@@ -1527,13 +1531,13 @@
         <v>30</v>
       </c>
       <c r="I43" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F44" t="s">
         <v>19</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>26</v>
       </c>
@@ -1567,13 +1571,13 @@
         <v>30</v>
       </c>
       <c r="I45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J45" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
         <v>19</v>
       </c>
@@ -1584,7 +1588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>26</v>
       </c>
@@ -1607,13 +1611,13 @@
         <v>30</v>
       </c>
       <c r="I47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J47" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F48" t="s">
         <v>19</v>
       </c>
@@ -1624,7 +1628,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>26</v>
       </c>
@@ -1647,13 +1651,13 @@
         <v>30</v>
       </c>
       <c r="I49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F50" t="s">
         <v>19</v>
       </c>
@@ -1664,7 +1668,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>26</v>
       </c>
@@ -1687,13 +1691,13 @@
         <v>30</v>
       </c>
       <c r="I51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J51" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F52" t="s">
         <v>19</v>
       </c>
@@ -1704,7 +1708,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1727,13 +1731,13 @@
         <v>30</v>
       </c>
       <c r="I53" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F54" t="s">
         <v>19</v>
       </c>
@@ -1744,7 +1748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>26</v>
       </c>
@@ -1767,13 +1771,13 @@
         <v>30</v>
       </c>
       <c r="I55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J55" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F56" t="s">
         <v>19</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1807,13 +1811,13 @@
         <v>30</v>
       </c>
       <c r="I57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
       <c r="F58" t="s">
         <v>19</v>
       </c>
